--- a/Figures/Figure2/summary.xlsx
+++ b/Figures/Figure2/summary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farnazfouladi/git/Anorexia_Analyses2021/Figures/Figure2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F0ABF7-8FF1-C645-B1C8-B5F65AF6F17A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7146C66-8F6D-5647-85F3-9CD09F0C12B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="1280" windowWidth="28800" windowHeight="16720" xr2:uid="{2A6FEB71-7479-B040-8368-935E6393FAF9}"/>
+    <workbookView xWindow="13180" yWindow="1280" windowWidth="28800" windowHeight="16720" xr2:uid="{2A6FEB71-7479-B040-8368-935E6393FAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>All</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Species</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2127DCBC-27FD-9346-B3ED-736FD43DD61E}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,9 +572,7 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,12 +632,55 @@
       </c>
       <c r="F12" s="1"/>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
